--- a/public/excelop/template/mat.xlsx
+++ b/public/excelop/template/mat.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735"/>
+    <workbookView windowWidth="27255" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>材料名称</t>
   </si>
@@ -25,13 +25,43 @@
     <t>类别</t>
   </si>
   <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>库存警示量</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
-    <t>&lt;%=rs1.name%&gt;</t>
+    <t>&lt;%=rs1.name1%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.cname%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.gname%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.guige%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.weight%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.pinpai%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.yujing%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.unit%&gt;</t>
@@ -75,15 +105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,9 +139,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,22 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +200,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,30 +231,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +274,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,49 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,109 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,17 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,41 +538,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,153 +572,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,6 +836,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1131,32 +1166,38 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.25" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,30 +1207,62 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
-      <c r="D4" t="s">
-        <v>7</v>
+    <row r="4" spans="9:9">
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C3"/>
+  <autoFilter ref="A2:H3">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
